--- a/Code/Results/Cases/Case_8_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_49/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014962940952284</v>
+        <v>1.012391192827276</v>
       </c>
       <c r="D2">
-        <v>1.030160219144462</v>
+        <v>1.027694922539984</v>
       </c>
       <c r="E2">
-        <v>1.027340143148065</v>
+        <v>1.02528283905977</v>
       </c>
       <c r="F2">
-        <v>1.033728934049189</v>
+        <v>1.03206616802878</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.047893422592973</v>
+        <v>1.046564723077258</v>
       </c>
       <c r="J2">
-        <v>1.036705141344666</v>
+        <v>1.0342074981328</v>
       </c>
       <c r="K2">
-        <v>1.041214775954988</v>
+        <v>1.038781449206612</v>
       </c>
       <c r="L2">
-        <v>1.038431286391911</v>
+        <v>1.036400831940186</v>
       </c>
       <c r="M2">
-        <v>1.044737549631495</v>
+        <v>1.043096139503825</v>
       </c>
       <c r="N2">
-        <v>1.038177381557122</v>
+        <v>1.02877699839736</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.043979151928552</v>
+        <v>1.042680090938917</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040212698063019</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.038500890195331</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022359324933684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.018394927353341</v>
+        <v>1.015581327081852</v>
       </c>
       <c r="D3">
-        <v>1.032383210895335</v>
+        <v>1.029675682442067</v>
       </c>
       <c r="E3">
-        <v>1.030049058404753</v>
+        <v>1.027793946343348</v>
       </c>
       <c r="F3">
-        <v>1.036447323460421</v>
+        <v>1.034626333327034</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048630655659918</v>
+        <v>1.047168310504618</v>
       </c>
       <c r="J3">
-        <v>1.038396386841304</v>
+        <v>1.035656057397725</v>
       </c>
       <c r="K3">
-        <v>1.042617853440343</v>
+        <v>1.039942431457348</v>
       </c>
       <c r="L3">
-        <v>1.040311367411038</v>
+        <v>1.038083132950949</v>
       </c>
       <c r="M3">
-        <v>1.046634162481397</v>
+        <v>1.044834533993352</v>
       </c>
       <c r="N3">
-        <v>1.039871028816348</v>
+        <v>1.029589158159537</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045480185095048</v>
+        <v>1.044055908176149</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.04120213143755</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039318865416102</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02257355848636</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020579546832369</v>
+        <v>1.017613328220405</v>
       </c>
       <c r="D4">
-        <v>1.033802103282595</v>
+        <v>1.030941163957677</v>
       </c>
       <c r="E4">
-        <v>1.031779195111089</v>
+        <v>1.029399151217056</v>
       </c>
       <c r="F4">
-        <v>1.038185412439538</v>
+        <v>1.036264574169588</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049092465928581</v>
+        <v>1.047545375777975</v>
       </c>
       <c r="J4">
-        <v>1.039471083731498</v>
+        <v>1.036576967800041</v>
       </c>
       <c r="K4">
-        <v>1.043508990338769</v>
+        <v>1.040679965123051</v>
       </c>
       <c r="L4">
-        <v>1.041508625384841</v>
+        <v>1.039155244313207</v>
       </c>
       <c r="M4">
-        <v>1.047843822447952</v>
+        <v>1.045944165563596</v>
       </c>
       <c r="N4">
-        <v>1.040947251899397</v>
+        <v>1.030105479794811</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.046437542674487</v>
+        <v>1.044934102333339</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.041833131671134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.03984134147962</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022707336271425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.021492380538869</v>
+        <v>1.018462566105568</v>
       </c>
       <c r="D5">
-        <v>1.0343980236995</v>
+        <v>1.031473124149429</v>
       </c>
       <c r="E5">
-        <v>1.032503639854893</v>
+        <v>1.030071514850428</v>
       </c>
       <c r="F5">
-        <v>1.038913135953384</v>
+        <v>1.036950691160218</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049285061823678</v>
+        <v>1.047702590787484</v>
       </c>
       <c r="J5">
-        <v>1.039921045286696</v>
+        <v>1.036962713415888</v>
       </c>
       <c r="K5">
-        <v>1.04388364017348</v>
+        <v>1.040990513610848</v>
       </c>
       <c r="L5">
-        <v>1.042009809691474</v>
+        <v>1.039604208413829</v>
       </c>
       <c r="M5">
-        <v>1.048350135410287</v>
+        <v>1.046408757724564</v>
       </c>
       <c r="N5">
-        <v>1.041397852451614</v>
+        <v>1.030321752993269</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046838252062469</v>
+        <v>1.045301793542739</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.042105189241497</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040068797805172</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022763583221651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021648611546283</v>
+        <v>1.018607774329172</v>
       </c>
       <c r="D6">
-        <v>1.034502674159874</v>
+        <v>1.031566790352842</v>
       </c>
       <c r="E6">
-        <v>1.032627891389271</v>
+        <v>1.030186737392117</v>
       </c>
       <c r="F6">
-        <v>1.039037359908853</v>
+        <v>1.037067702011313</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049319684958413</v>
+        <v>1.047731106046514</v>
       </c>
       <c r="J6">
-        <v>1.039999697178177</v>
+        <v>1.037030239455412</v>
       </c>
       <c r="K6">
-        <v>1.043951123068009</v>
+        <v>1.041046987781481</v>
       </c>
       <c r="L6">
-        <v>1.042096588567688</v>
+        <v>1.039681935376286</v>
       </c>
       <c r="M6">
-        <v>1.048437202679454</v>
+        <v>1.046488593074707</v>
       </c>
       <c r="N6">
-        <v>1.041476616037803</v>
+        <v>1.030359612290936</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.046907159366105</v>
+        <v>1.04536497744959</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.042161624594659</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040118332249505</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022774364341748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020601050296216</v>
+        <v>1.017650633284965</v>
       </c>
       <c r="D7">
-        <v>1.033823113002466</v>
+        <v>1.030973542456952</v>
       </c>
       <c r="E7">
-        <v>1.03179675547868</v>
+        <v>1.029430140297573</v>
       </c>
       <c r="F7">
-        <v>1.038201391109937</v>
+        <v>1.036291197344025</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049101754687258</v>
+        <v>1.047562445174475</v>
       </c>
       <c r="J7">
-        <v>1.039486163022285</v>
+        <v>1.036607432908523</v>
       </c>
       <c r="K7">
-        <v>1.043526896135706</v>
+        <v>1.040709100264371</v>
       </c>
       <c r="L7">
-        <v>1.041523111707991</v>
+        <v>1.039182998535649</v>
       </c>
       <c r="M7">
-        <v>1.04785677108093</v>
+        <v>1.045967633248927</v>
       </c>
       <c r="N7">
-        <v>1.040962352604506</v>
+        <v>1.030174536663979</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.046447790565725</v>
+        <v>1.044952675319242</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.041865847827198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.039884028339861</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022715924870562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016141992645129</v>
+        <v>1.013541594741916</v>
       </c>
       <c r="D8">
-        <v>1.030931722917852</v>
+        <v>1.028423576031421</v>
       </c>
       <c r="E8">
-        <v>1.028270252970712</v>
+        <v>1.026191214911157</v>
       </c>
       <c r="F8">
-        <v>1.034659829971512</v>
+        <v>1.032979344116487</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048154089364201</v>
+        <v>1.046806637960166</v>
       </c>
       <c r="J8">
-        <v>1.037292091599153</v>
+        <v>1.034764145939343</v>
       </c>
       <c r="K8">
-        <v>1.041708391518732</v>
+        <v>1.039231818861462</v>
       </c>
       <c r="L8">
-        <v>1.039080432168052</v>
+        <v>1.037027722280631</v>
       </c>
       <c r="M8">
-        <v>1.045389919099817</v>
+        <v>1.043730377590338</v>
       </c>
       <c r="N8">
-        <v>1.03876516534829</v>
+        <v>1.029246630127806</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.044495455963752</v>
+        <v>1.043182046174479</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.040584574119744</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038844489014511</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022450189836526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.007982391309903</v>
+        <v>1.005976067926447</v>
       </c>
       <c r="D9">
-        <v>1.025661660209581</v>
+        <v>1.023742081417593</v>
       </c>
       <c r="E9">
-        <v>1.021863293347882</v>
+        <v>1.020269753412945</v>
       </c>
       <c r="F9">
-        <v>1.028243156385997</v>
+        <v>1.026951488631634</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04635463686957</v>
+        <v>1.045332259546793</v>
       </c>
       <c r="J9">
-        <v>1.033256385839436</v>
+        <v>1.031319546521986</v>
       </c>
       <c r="K9">
-        <v>1.038351676279132</v>
+        <v>1.036461355936545</v>
       </c>
       <c r="L9">
-        <v>1.034611340405793</v>
+        <v>1.033042310631329</v>
       </c>
       <c r="M9">
-        <v>1.040894044381788</v>
+        <v>1.0396219232717</v>
       </c>
       <c r="N9">
-        <v>1.034723728423492</v>
+        <v>1.027334351068943</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.040937283451619</v>
+        <v>1.039930484793656</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.038207998671217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03688214004844</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021925327999055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002401560855265</v>
+        <v>1.000888835405682</v>
       </c>
       <c r="D10">
-        <v>1.022090041713121</v>
+        <v>1.02063568980334</v>
       </c>
       <c r="E10">
-        <v>1.017555259397971</v>
+        <v>1.016366896775451</v>
       </c>
       <c r="F10">
-        <v>1.023988814165713</v>
+        <v>1.023021793249984</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045105253034885</v>
+        <v>1.044346275002296</v>
       </c>
       <c r="J10">
-        <v>1.030520218517025</v>
+        <v>1.029067232644771</v>
       </c>
       <c r="K10">
-        <v>1.036071588122778</v>
+        <v>1.034642095015385</v>
       </c>
       <c r="L10">
-        <v>1.031614620969391</v>
+        <v>1.030446798764989</v>
       </c>
       <c r="M10">
-        <v>1.037938042623718</v>
+        <v>1.036987461476537</v>
       </c>
       <c r="N10">
-        <v>1.03198367542964</v>
+        <v>1.026303394060537</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.038649231588149</v>
+        <v>1.037896954934113</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.036612622843723</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035614289528616</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021581701295238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000472017381332</v>
+        <v>0.9992230061589737</v>
       </c>
       <c r="D11">
-        <v>1.020927526682291</v>
+        <v>1.019698519532147</v>
       </c>
       <c r="E11">
-        <v>1.016400505233258</v>
+        <v>1.015431545627894</v>
       </c>
       <c r="F11">
-        <v>1.023255012717411</v>
+        <v>1.022464107723626</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044807606890744</v>
+        <v>1.04418399953108</v>
       </c>
       <c r="J11">
-        <v>1.02982517305384</v>
+        <v>1.028628144745834</v>
       </c>
       <c r="K11">
-        <v>1.035465285095338</v>
+        <v>1.034258272201757</v>
       </c>
       <c r="L11">
-        <v>1.031019620825241</v>
+        <v>1.03006819742121</v>
       </c>
       <c r="M11">
-        <v>1.037751306405275</v>
+        <v>1.036974464090881</v>
       </c>
       <c r="N11">
-        <v>1.031287642922175</v>
+        <v>1.026499699090571</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.038937427843363</v>
+        <v>1.038322954902779</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.036216732240302</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035378944635357</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021555895625389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9999482780253142</v>
+        <v>0.9987715457761065</v>
       </c>
       <c r="D12">
-        <v>1.020639576867935</v>
+        <v>1.019469564991605</v>
       </c>
       <c r="E12">
-        <v>1.016240809986162</v>
+        <v>1.01533146424758</v>
       </c>
       <c r="F12">
-        <v>1.023393450805228</v>
+        <v>1.02265090155627</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044790890894955</v>
+        <v>1.04420286485207</v>
       </c>
       <c r="J12">
-        <v>1.029754826979491</v>
+        <v>1.028627987139155</v>
       </c>
       <c r="K12">
-        <v>1.035381757348626</v>
+        <v>1.034233028929588</v>
       </c>
       <c r="L12">
-        <v>1.031063338745607</v>
+        <v>1.030170716349118</v>
       </c>
       <c r="M12">
-        <v>1.038085785784339</v>
+        <v>1.037356642410656</v>
       </c>
       <c r="N12">
-        <v>1.031217196948331</v>
+        <v>1.026691805476314</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.039528132714431</v>
+        <v>1.038951584114212</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.036157675609748</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035361097218315</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021581640749949</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000482058476392</v>
+        <v>0.9992180034670418</v>
       </c>
       <c r="D13">
-        <v>1.021019171138775</v>
+        <v>1.019771027356308</v>
       </c>
       <c r="E13">
-        <v>1.016846775661204</v>
+        <v>1.015864130737578</v>
       </c>
       <c r="F13">
-        <v>1.024232198384968</v>
+        <v>1.023432000959217</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045000590457526</v>
+        <v>1.044365319218618</v>
       </c>
       <c r="J13">
-        <v>1.030173484261981</v>
+        <v>1.028962753450933</v>
       </c>
       <c r="K13">
-        <v>1.035711739454151</v>
+        <v>1.034486204909347</v>
       </c>
       <c r="L13">
-        <v>1.031615206932783</v>
+        <v>1.030650546640135</v>
       </c>
       <c r="M13">
-        <v>1.038866894323592</v>
+        <v>1.03808106573327</v>
       </c>
       <c r="N13">
-        <v>1.031636448772183</v>
+        <v>1.02683698204386</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.04042215402703</v>
+        <v>1.039800939187405</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.036388494748066</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035537364168814</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021651072359847</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00133419854889</v>
+        <v>0.9999396124118521</v>
       </c>
       <c r="D14">
-        <v>1.021588274296</v>
+        <v>1.020225761206169</v>
       </c>
       <c r="E14">
-        <v>1.017615433996706</v>
+        <v>1.016524117176704</v>
       </c>
       <c r="F14">
-        <v>1.025133714172368</v>
+        <v>1.024247361845896</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04524985869094</v>
+        <v>1.044545774232981</v>
       </c>
       <c r="J14">
-        <v>1.030687153334692</v>
+        <v>1.02935056144246</v>
       </c>
       <c r="K14">
-        <v>1.036130687093278</v>
+        <v>1.034792552414523</v>
       </c>
       <c r="L14">
-        <v>1.032229166841006</v>
+        <v>1.031157568154405</v>
       </c>
       <c r="M14">
-        <v>1.039613085055032</v>
+        <v>1.038742439984412</v>
       </c>
       <c r="N14">
-        <v>1.032150847313896</v>
+        <v>1.026919579263867</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.041185149040502</v>
+        <v>1.040496977647007</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.036686125420969</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035755518907643</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021720635498936</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.001777451257781</v>
+        <v>1.000317943292137</v>
       </c>
       <c r="D15">
-        <v>1.021878534085713</v>
+        <v>1.020459579119305</v>
       </c>
       <c r="E15">
-        <v>1.017979358214254</v>
+        <v>1.016834262500729</v>
       </c>
       <c r="F15">
-        <v>1.025523591188539</v>
+        <v>1.024594443173576</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045363742046123</v>
+        <v>1.044625860654902</v>
       </c>
       <c r="J15">
-        <v>1.030925830135028</v>
+        <v>1.029526492566162</v>
       </c>
       <c r="K15">
-        <v>1.036329616553985</v>
+        <v>1.034935859856593</v>
       </c>
       <c r="L15">
-        <v>1.032499902645731</v>
+        <v>1.031375337747038</v>
       </c>
       <c r="M15">
-        <v>1.039910357770707</v>
+        <v>1.03899754794606</v>
       </c>
       <c r="N15">
-        <v>1.032389863062666</v>
+        <v>1.026938434169844</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041457610948405</v>
+        <v>1.040736130834002</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.036832634117927</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035863275958448</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021749704726001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.00403191611879</v>
+        <v>1.002270295718676</v>
       </c>
       <c r="D16">
-        <v>1.023313668020598</v>
+        <v>1.021631847524673</v>
       </c>
       <c r="E16">
-        <v>1.019686914138082</v>
+        <v>1.018292828530325</v>
       </c>
       <c r="F16">
-        <v>1.027193699900641</v>
+        <v>1.026065685934611</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045863372895442</v>
+        <v>1.044969693904051</v>
       </c>
       <c r="J16">
-        <v>1.032010197589048</v>
+        <v>1.0303176292401</v>
       </c>
       <c r="K16">
-        <v>1.037238889534087</v>
+        <v>1.035585651617513</v>
       </c>
       <c r="L16">
-        <v>1.033673924326724</v>
+        <v>1.032303741005004</v>
       </c>
       <c r="M16">
-        <v>1.041053440532985</v>
+        <v>1.039944397503728</v>
       </c>
       <c r="N16">
-        <v>1.033475770442848</v>
+        <v>1.026979419172674</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042322428860186</v>
+        <v>1.041445822098685</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.037478681733321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.03632616801774</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021862426932774</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.005317996575004</v>
+        <v>1.003409028985045</v>
       </c>
       <c r="D17">
-        <v>1.024119545576028</v>
+        <v>1.022307618076072</v>
       </c>
       <c r="E17">
-        <v>1.020596529203686</v>
+        <v>1.019081352517651</v>
       </c>
       <c r="F17">
-        <v>1.027999141211703</v>
+        <v>1.026774061171729</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04611476026153</v>
+        <v>1.045145083303532</v>
       </c>
       <c r="J17">
-        <v>1.032573334882166</v>
+        <v>1.030736830650748</v>
       </c>
       <c r="K17">
-        <v>1.03771748743812</v>
+        <v>1.035935501467799</v>
       </c>
       <c r="L17">
-        <v>1.034252813499917</v>
+        <v>1.032762888523141</v>
       </c>
       <c r="M17">
-        <v>1.041533430144466</v>
+        <v>1.04032838331451</v>
       </c>
       <c r="N17">
-        <v>1.034039707455515</v>
+        <v>1.027027432372565</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042572947005934</v>
+        <v>1.041620362494491</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.037819651000526</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036576360774471</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021915251265147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.005875465725622</v>
+        <v>1.003918556693915</v>
       </c>
       <c r="D18">
-        <v>1.024440721480782</v>
+        <v>1.022586101113376</v>
       </c>
       <c r="E18">
-        <v>1.020870576644558</v>
+        <v>1.019315996811234</v>
       </c>
       <c r="F18">
-        <v>1.02807654830244</v>
+        <v>1.026819331078097</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046165740569692</v>
+        <v>1.045171712538464</v>
       </c>
       <c r="J18">
-        <v>1.03271832802579</v>
+        <v>1.030834338702857</v>
       </c>
       <c r="K18">
-        <v>1.037850503118775</v>
+        <v>1.036026034279391</v>
       </c>
       <c r="L18">
-        <v>1.034338525363985</v>
+        <v>1.032809437503901</v>
       </c>
       <c r="M18">
-        <v>1.04142762538149</v>
+        <v>1.04019064701508</v>
       </c>
       <c r="N18">
-        <v>1.034184906506034</v>
+        <v>1.027000157685676</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042251926525068</v>
+        <v>1.041273896857745</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.037902085476566</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036627610892576</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021911192055664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.005785716034808</v>
+        <v>1.003855753178735</v>
       </c>
       <c r="D19">
-        <v>1.02434265884909</v>
+        <v>1.022513293744413</v>
       </c>
       <c r="E19">
-        <v>1.020574078516419</v>
+        <v>1.019041427307303</v>
       </c>
       <c r="F19">
-        <v>1.027491536522845</v>
+        <v>1.026250907110992</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046047746732637</v>
+        <v>1.045068703681882</v>
       </c>
       <c r="J19">
-        <v>1.032498553611019</v>
+        <v>1.030640101635159</v>
       </c>
       <c r="K19">
-        <v>1.03769166737704</v>
+        <v>1.035891890953572</v>
       </c>
       <c r="L19">
-        <v>1.033984189958526</v>
+        <v>1.032476554974381</v>
       </c>
       <c r="M19">
-        <v>1.040789930612531</v>
+        <v>1.039569195269777</v>
       </c>
       <c r="N19">
-        <v>1.033964819986386</v>
+        <v>1.026868178040798</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.041422608857448</v>
+        <v>1.040457107031059</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.037796165987786</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036539782009145</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021859663506111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.003871566578564</v>
+        <v>1.002175710635395</v>
       </c>
       <c r="D20">
-        <v>1.023046558737166</v>
+        <v>1.021430651884058</v>
       </c>
       <c r="E20">
-        <v>1.018691243011489</v>
+        <v>1.017351036617087</v>
       </c>
       <c r="F20">
-        <v>1.025108567151765</v>
+        <v>1.024020231227566</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045449366760984</v>
+        <v>1.044594664716733</v>
       </c>
       <c r="J20">
-        <v>1.031254057308047</v>
+        <v>1.029623019155104</v>
       </c>
       <c r="K20">
-        <v>1.036695916080274</v>
+        <v>1.035106853275947</v>
       </c>
       <c r="L20">
-        <v>1.032413203283333</v>
+        <v>1.031095499357407</v>
       </c>
       <c r="M20">
-        <v>1.038723827770716</v>
+        <v>1.037653466204673</v>
       </c>
       <c r="N20">
-        <v>1.032718556355918</v>
+        <v>1.026420486774973</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.039260550694071</v>
+        <v>1.0384134713011</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.037096046920523</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035989036715935</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021669383663159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9995860520649671</v>
+        <v>0.9985206347511884</v>
       </c>
       <c r="D21">
-        <v>1.020297365074798</v>
+        <v>1.019227218067461</v>
       </c>
       <c r="E21">
-        <v>1.015332179007417</v>
+        <v>1.014517469561288</v>
       </c>
       <c r="F21">
-        <v>1.021715995281341</v>
+        <v>1.021046658728405</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044448923484425</v>
+        <v>1.043922850160925</v>
       </c>
       <c r="J21">
-        <v>1.029101090472494</v>
+        <v>1.028080338095489</v>
       </c>
       <c r="K21">
-        <v>1.034904137694725</v>
+        <v>1.033853256593194</v>
       </c>
       <c r="L21">
-        <v>1.030028786348539</v>
+        <v>1.029228926688046</v>
       </c>
       <c r="M21">
-        <v>1.03629730904298</v>
+        <v>1.03563997300871</v>
       </c>
       <c r="N21">
-        <v>1.03056253206051</v>
+        <v>1.026362885602672</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.037299268631495</v>
+        <v>1.036779028719725</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.035832416213296</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.035106241796086</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021445387285515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9968654463406608</v>
+        <v>0.9961863602932296</v>
       </c>
       <c r="D22">
-        <v>1.018554609523427</v>
+        <v>1.017822014100841</v>
       </c>
       <c r="E22">
-        <v>1.013226937769085</v>
+        <v>1.012735121056012</v>
       </c>
       <c r="F22">
-        <v>1.01961890743059</v>
+        <v>1.019206937896674</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043810269406803</v>
+        <v>1.043487187763915</v>
       </c>
       <c r="J22">
-        <v>1.027743837207988</v>
+        <v>1.027094855153603</v>
       </c>
       <c r="K22">
-        <v>1.033767244621757</v>
+        <v>1.033048492418454</v>
       </c>
       <c r="L22">
-        <v>1.028540842805466</v>
+        <v>1.028058445007128</v>
       </c>
       <c r="M22">
-        <v>1.034811477714567</v>
+        <v>1.034407268395258</v>
       </c>
       <c r="N22">
-        <v>1.029203351340689</v>
+        <v>1.026281154684282</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.036123326532844</v>
+        <v>1.035803419927836</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.035015096673744</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034522436591362</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021299746256501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.998303752888019</v>
+        <v>0.9973949876828211</v>
       </c>
       <c r="D23">
-        <v>1.019469270801594</v>
+        <v>1.01853855912625</v>
       </c>
       <c r="E23">
-        <v>1.014338481183877</v>
+        <v>1.013653914633702</v>
       </c>
       <c r="F23">
-        <v>1.020727451997047</v>
+        <v>1.020162050148036</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044144473658923</v>
+        <v>1.043700812774444</v>
       </c>
       <c r="J23">
-        <v>1.028457492471362</v>
+        <v>1.027587848123342</v>
       </c>
       <c r="K23">
-        <v>1.034360542252158</v>
+        <v>1.033446976003983</v>
       </c>
       <c r="L23">
-        <v>1.029324781947768</v>
+        <v>1.028652989452457</v>
       </c>
       <c r="M23">
-        <v>1.035595610162329</v>
+        <v>1.035040585780457</v>
       </c>
       <c r="N23">
-        <v>1.029918020076395</v>
+        <v>1.026238452616017</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036743918317905</v>
+        <v>1.036304651292414</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.035424959860409</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034793611101807</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021367637091775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.003877178898071</v>
+        <v>1.0021825635984</v>
       </c>
       <c r="D24">
-        <v>1.023034741357163</v>
+        <v>1.021419897612527</v>
       </c>
       <c r="E24">
-        <v>1.018662729410687</v>
+        <v>1.017323490958719</v>
       </c>
       <c r="F24">
-        <v>1.025042140119292</v>
+        <v>1.023954466709373</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045431060319451</v>
+        <v>1.044577079325752</v>
       </c>
       <c r="J24">
-        <v>1.031226792569695</v>
+        <v>1.02959685561217</v>
       </c>
       <c r="K24">
-        <v>1.036669066292712</v>
+        <v>1.035081015330851</v>
       </c>
       <c r="L24">
-        <v>1.032369845904202</v>
+        <v>1.031053066420856</v>
       </c>
       <c r="M24">
-        <v>1.038643310583422</v>
+        <v>1.037573580571298</v>
       </c>
       <c r="N24">
-        <v>1.03269125289851</v>
+        <v>1.026397905573539</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.039155977435012</v>
+        <v>1.038309355771066</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.037049702727203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035940706318377</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021658787989745</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010142282814097</v>
+        <v>1.007954233434495</v>
       </c>
       <c r="D25">
-        <v>1.027063483445493</v>
+        <v>1.024970517163915</v>
       </c>
       <c r="E25">
-        <v>1.023554523419957</v>
+        <v>1.021811880346222</v>
       </c>
       <c r="F25">
-        <v>1.029932560639075</v>
+        <v>1.028521535344573</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.04684484888103</v>
+        <v>1.045724669481372</v>
       </c>
       <c r="J25">
-        <v>1.03433307411199</v>
+        <v>1.032216839424658</v>
       </c>
       <c r="K25">
-        <v>1.039255713627566</v>
+        <v>1.037193181474598</v>
       </c>
       <c r="L25">
-        <v>1.035797867477741</v>
+        <v>1.034080774554661</v>
       </c>
       <c r="M25">
-        <v>1.042083325780186</v>
+        <v>1.040692656547416</v>
       </c>
       <c r="N25">
-        <v>1.035801945716891</v>
+        <v>1.027771687643201</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041878518756022</v>
+        <v>1.040777898562395</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038875732521584</v>
+        <v>1.037430951064901</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022066312899036</v>
       </c>
     </row>
   </sheetData>
